--- a/statics/template/stock.xlsx
+++ b/statics/template/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>股票代码</t>
+    <t>股票代码（6位股票代码）</t>
   </si>
   <si>
-    <t>权重</t>
+    <t>权重（数字）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -648,8 +649,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,14 +1190,14 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="37.8173076923077" customWidth="1"/>
+    <col min="2" max="2" width="37.8173076923077" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/statics/template/stock.xlsx
+++ b/statics/template/stock.xlsx
@@ -32,7 +32,7 @@
     <t>股票代码（6位股票代码）</t>
   </si>
   <si>
-    <t>权重（数字）</t>
+    <t>股票数量（数字）</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
